--- a/Regular Summarization_ 530 PM.xlsx
+++ b/Regular Summarization_ 530 PM.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="18th July - Agenda Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Project Tracking" sheetId="5" r:id="rId2"/>
-    <sheet name="sheet" sheetId="6" r:id="rId3"/>
+    <sheet name="EDA explanation" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'18th July - Agenda Sheet'!$A$1:$F$1</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="218">
   <si>
     <t>Date</t>
   </si>
@@ -833,7 +833,28 @@
 statsstic ml journey ( p-value == 0.05) </t>
   </si>
   <si>
-    <t xml:space="preserve">Inferential stats </t>
+    <t xml:space="preserve">Inferential stats -1 </t>
+  </si>
+  <si>
+    <t>Inferential stats -2</t>
+  </si>
+  <si>
+    <t>z score -- standarization conver mean 0 &amp; std - 1 
+z table , z-test ( data is population) 
+t test we will implement when the data is sample 
+p-value 0.05 cuz confidence is 95% \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adavance stats </t>
+  </si>
+  <si>
+    <t>Inferential stats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales data anlaysis </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=baJi1276DcU&amp;t=10s</t>
   </si>
 </sst>
 </file>
@@ -1361,11 +1382,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18"/>
@@ -1734,9 +1755,23 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:3" ht="72">
       <c r="A33" s="11">
         <v>46030</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="11">
+        <v>46031</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -1749,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.77734375" defaultRowHeight="15.6"/>
@@ -2393,11 +2428,21 @@
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="7">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="B31" s="10">
+        <v>46031</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>

--- a/Regular Summarization_ 530 PM.xlsx
+++ b/Regular Summarization_ 530 PM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23172" windowHeight="9624" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23172" windowHeight="9624"/>
   </bookViews>
   <sheets>
     <sheet name="18th July - Agenda Sheet" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="222">
   <si>
     <t>Date</t>
   </si>
@@ -855,6 +855,36 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=baJi1276DcU&amp;t=10s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cofdenence interval -- 2 part 
+population -- z test | sample - t test 
+99% ml model while we build regression table we will get t-tst only not z-test 
+p-value =0.05 | y = mx + c | y^ = mx + c 
+y - actual point | y^ - predicted point | m- slope | x - iv, c -- intercept and constant 
+y = mx + C this equestion predict the future ?
+mae -- absoulte error ( actual - predicted ) | mse ( actual - predict) ** 2
+rmse -- root mean squre error np** sqrt (actual - predicte)**2  
+how to build inferential project &amp; also i shared some the link watch ( keep video)
+easy way to forget ( oops, stats )  -- reference 
+permormance measre of regression model -- r 2 &amp; adjusted r2 |  range 0-1 
+performance measure of classificaiton -- confusion matrix  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANOVA, R2, ADJUSTED R2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">anova -- analaysis of variance 
+Ssr == sum of squre regressor ( Predicted point - Avg point) 
+sse == sum of squre error ( Actual - Predicted) 
+sst = sse + ssr  ( actual - average)
+r2 &amp; adjusted r2 -- perfomance measure of regression model 
+range of r2 &amp; adjusted r2 0-1 | r2 &gt; adjusted r2
+regression table | we just menioned list of complete topics </t>
+  </si>
+  <si>
+    <t>Machine learning</t>
   </si>
 </sst>
 </file>
@@ -1382,11 +1412,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18"/>
@@ -1766,12 +1796,34 @@
         <v>213</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="216.6" customHeight="1">
       <c r="A34" s="11">
         <v>46031</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>214</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="126">
+      <c r="A35" s="11">
+        <v>46032</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="11">
+        <v>46034</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1784,8 +1836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.77734375" defaultRowHeight="15.6"/>
@@ -2450,6 +2502,12 @@
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10">
+        <v>46032</v>
+      </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>

--- a/Regular Summarization_ 530 PM.xlsx
+++ b/Regular Summarization_ 530 PM.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="231">
   <si>
     <t>Date</t>
   </si>
@@ -885,6 +885,53 @@
   </si>
   <si>
     <t>Machine learning</t>
+  </si>
+  <si>
+    <t>ML -- DATA PREPROCESSING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">machine will learn the historical data 
+historical data -- 2 part ( training phase &amp; testing phase) 
+future data - validatiaon data 
+traditional learning vs machine learning 
+what is mean by model or logic 
+tradtional learning --- input right logic model generate output 
+machine learning -- train input data + output data -- logic has build ( model ) 
+introduce to spyder application  
+TRAIN TEST SPLIT RATIO -- 75-25 | 80-20 | 70-30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML introduction </t>
+  </si>
+  <si>
+    <t>Dataprocessing pipeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we buildild data preprocessing piple line 
+parameter tunning , hyperparameter tunning 
+sklearn framework | sklear.preprocessing |sklear.model_selection 
+labelencoder concept | train_test_split 
+what is the use to implement random_state = 0
+sklearn.imputer - which helps to fill missing value </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLR Backend code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML developer code we built </t>
+  </si>
+  <si>
+    <t xml:space="preserve">simple linear regression model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we learned how to fit the simple liner reg algorithm 
+backend part , pickle the file frontend 
+once we build regressor model which hold simple linear regression algorithm 
+regressor.coef_ &amp; regressor.intercept) 
+cuz of 2 import concept anyone can predict the future datapoint
+how to compare actual data vs predicted data (y_test vs y_pred) 
+we train the historical data build model 
+pass validation data predict future prediction | future pred vs real time data </t>
   </si>
 </sst>
 </file>
@@ -1412,17 +1459,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="15.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="107.5546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="53.44140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="34.77734375" style="3" customWidth="1"/>
@@ -1818,12 +1865,42 @@
         <v>220</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" ht="168" customHeight="1">
       <c r="A36" s="11">
         <v>46034</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>221</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="108">
+      <c r="A37" s="11">
+        <v>46041</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="144">
+      <c r="A38" s="11">
+        <v>46042</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="11">
+        <v>46043</v>
       </c>
     </row>
   </sheetData>
@@ -1836,8 +1913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K278"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.77734375" defaultRowHeight="15.6"/>
@@ -1845,7 +1922,7 @@
     <col min="1" max="1" width="7.33203125" style="7" customWidth="1"/>
     <col min="2" max="2" width="14.77734375" style="7" customWidth="1"/>
     <col min="3" max="3" width="33.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="71.77734375" style="7" customWidth="1"/>
     <col min="5" max="5" width="73.88671875" style="7" customWidth="1"/>
     <col min="6" max="6" width="23.21875" style="7" customWidth="1"/>
     <col min="7" max="7" width="24.77734375" style="7" customWidth="1"/>
@@ -1911,7 +1988,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="62.4">
+    <row r="3" spans="1:11" ht="93.6">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2091,7 +2168,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="31.2">
+    <row r="12" spans="1:11" ht="46.8">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -2231,7 +2308,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="31.2">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -2271,7 +2348,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="31.2">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -2439,7 +2516,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" ht="31.2">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -2508,7 +2585,12 @@
       <c r="B32" s="10">
         <v>46032</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="C32" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>224</v>
+      </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -2516,8 +2598,19 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="4:10">
-      <c r="D33" s="6"/>
+    <row r="33" spans="1:10">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10">
+        <v>46042</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -2525,7 +2618,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="4:10">
+    <row r="34" spans="1:10">
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -2534,7 +2627,7 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="4:10">
+    <row r="35" spans="1:10">
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -2543,7 +2636,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="4:10">
+    <row r="36" spans="1:10">
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -2552,7 +2645,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="4:10">
+    <row r="37" spans="1:10">
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -2561,7 +2654,7 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="4:10">
+    <row r="38" spans="1:10">
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -2570,7 +2663,7 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="4:10">
+    <row r="39" spans="1:10">
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -2579,7 +2672,7 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" spans="4:10">
+    <row r="40" spans="1:10">
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -2588,7 +2681,7 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" spans="4:10">
+    <row r="41" spans="1:10">
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -2597,7 +2690,7 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
     </row>
-    <row r="42" spans="4:10">
+    <row r="42" spans="1:10">
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -2606,7 +2699,7 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="4:10">
+    <row r="43" spans="1:10">
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -2615,7 +2708,7 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="4:10">
+    <row r="44" spans="1:10">
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -2624,7 +2717,7 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" spans="4:10">
+    <row r="45" spans="1:10">
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -2633,7 +2726,7 @@
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="4:10">
+    <row r="46" spans="1:10">
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -2642,7 +2735,7 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="4:10">
+    <row r="47" spans="1:10">
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -2651,7 +2744,7 @@
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
     </row>
-    <row r="48" spans="4:10">
+    <row r="48" spans="1:10">
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>

--- a/Regular Summarization_ 530 PM.xlsx
+++ b/Regular Summarization_ 530 PM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23172" windowHeight="9624"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23172" windowHeight="9624" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="18th July - Agenda Sheet" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="234">
   <si>
     <t>Date</t>
   </si>
@@ -915,9 +915,6 @@
 sklearn.imputer - which helps to fill missing value </t>
   </si>
   <si>
-    <t xml:space="preserve">SLR Backend code </t>
-  </si>
-  <si>
     <t xml:space="preserve">ML developer code we built </t>
   </si>
   <si>
@@ -932,6 +929,22 @@
 how to compare actual data vs predicted data (y_test vs y_pred) 
 we train the historical data build model 
 pass validation data predict future prediction | future pred vs real time data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">slr model performance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">slr model complete </t>
+  </si>
+  <si>
+    <t xml:space="preserve">applie all stats concept to ml model 
+mae, mse, rmse , r2, sse, ssr, sst | corr
+knew that how to check best regression model 
+these concept only we discussed in stats concpet 
+yester backend part | bias -- training data &amp; variance - testign </t>
+  </si>
+  <si>
+    <t>SLR Backend code | deployment</t>
   </si>
 </sst>
 </file>
@@ -1459,11 +1472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18"/>
@@ -1892,15 +1905,29 @@
         <v>46042</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+    </row>
+    <row r="39" spans="1:3" ht="90">
       <c r="A39" s="11">
         <v>46043</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="11">
+        <v>46044</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -1913,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K278"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="D24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.77734375" defaultRowHeight="15.6"/>
@@ -2606,10 +2633,10 @@
         <v>46042</v>
       </c>
       <c r="C33" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>227</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>228</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>

--- a/Regular Summarization_ 530 PM.xlsx
+++ b/Regular Summarization_ 530 PM.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="251">
   <si>
     <t>Date</t>
   </si>
@@ -998,6 +998,22 @@
   </si>
   <si>
     <t xml:space="preserve">cars mpg analysis using l1, l2, simple linear model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">non linear model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">polynomial model with hyperparameter tunning -- 174.8 -- 6.5 level  
+svr model -- 164 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">polynomial -- Increse the degree of independent variable 
+we build the code yesterday without train &amp; test split we built
+svr model | using hyperparameter tunning accuracy increse
+parameter tunning if accuracy will increase  </t>
+  </si>
+  <si>
+    <t>knn, dt, rf  | intro classfiction</t>
   </si>
 </sst>
 </file>
@@ -1525,11 +1541,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18"/>
@@ -2008,12 +2024,23 @@
         <v>244</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" ht="72">
       <c r="A43" s="11">
         <v>46048</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>243</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="11">
+        <v>46049</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2027,7 +2054,7 @@
   <dimension ref="A1:K278"/>
   <sheetViews>
     <sheetView topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.77734375" defaultRowHeight="15.6"/>
@@ -2793,11 +2820,19 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" ht="31.2">
       <c r="A37" s="9">
         <v>36</v>
       </c>
-      <c r="D37" s="6"/>
+      <c r="B37" s="10">
+        <v>46048</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>248</v>
+      </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
